--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp4</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H2">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N2">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q2">
-        <v>379.2441771397547</v>
+        <v>386.47656689558</v>
       </c>
       <c r="R2">
-        <v>379.2441771397547</v>
+        <v>3478.28910206022</v>
       </c>
       <c r="S2">
-        <v>0.179304316812737</v>
+        <v>0.1725239869879224</v>
       </c>
       <c r="T2">
-        <v>0.179304316812737</v>
+        <v>0.1725239869879224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H3">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N3">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q3">
-        <v>345.9093069028027</v>
+        <v>349.0841884182566</v>
       </c>
       <c r="R3">
-        <v>345.9093069028027</v>
+        <v>3141.75769576431</v>
       </c>
       <c r="S3">
-        <v>0.1635437949796613</v>
+        <v>0.1558319472358404</v>
       </c>
       <c r="T3">
-        <v>0.1635437949796613</v>
+        <v>0.1558319472358404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H4">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N4">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q4">
-        <v>172.8743727852125</v>
+        <v>174.8994200590933</v>
       </c>
       <c r="R4">
-        <v>172.8743727852125</v>
+        <v>1574.09478053184</v>
       </c>
       <c r="S4">
-        <v>0.08173394128411425</v>
+        <v>0.07807548466094409</v>
       </c>
       <c r="T4">
-        <v>0.08173394128411425</v>
+        <v>0.07807548466094411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H5">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N5">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q5">
-        <v>201.0339438311455</v>
+        <v>202.9368544558833</v>
       </c>
       <c r="R5">
-        <v>201.0339438311455</v>
+        <v>1826.43169010295</v>
       </c>
       <c r="S5">
-        <v>0.09504761345757017</v>
+        <v>0.09059145686050424</v>
       </c>
       <c r="T5">
-        <v>0.09504761345757017</v>
+        <v>0.09059145686050424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H6">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I6">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J6">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4065064186731</v>
+        <v>16.05764533333333</v>
       </c>
       <c r="N6">
-        <v>14.4065064186731</v>
+        <v>48.172936</v>
       </c>
       <c r="O6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="P6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="Q6">
-        <v>124.0095273275649</v>
+        <v>139.3112333301733</v>
       </c>
       <c r="R6">
-        <v>124.0095273275649</v>
+        <v>1253.80109997156</v>
       </c>
       <c r="S6">
-        <v>0.05863094258542963</v>
+        <v>0.06218884006186073</v>
       </c>
       <c r="T6">
-        <v>0.05863094258542963</v>
+        <v>0.06218884006186073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H7">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N7">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q7">
-        <v>276.5919132991397</v>
+        <v>281.3613869542293</v>
       </c>
       <c r="R7">
-        <v>276.5919132991397</v>
+        <v>2532.252482588064</v>
       </c>
       <c r="S7">
-        <v>0.1307709571813786</v>
+        <v>0.1256003401492397</v>
       </c>
       <c r="T7">
-        <v>0.1307709571813786</v>
+        <v>0.1256003401492397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H8">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N8">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q8">
-        <v>252.2799894933343</v>
+        <v>254.1391117347858</v>
       </c>
       <c r="R8">
-        <v>252.2799894933343</v>
+        <v>2287.252005613072</v>
       </c>
       <c r="S8">
-        <v>0.1192764289824741</v>
+        <v>0.1134482567940545</v>
       </c>
       <c r="T8">
-        <v>0.1192764289824741</v>
+        <v>0.1134482567940545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H9">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N9">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q9">
-        <v>126.0814441230832</v>
+        <v>127.3296950462009</v>
       </c>
       <c r="R9">
-        <v>126.0814441230832</v>
+        <v>1145.967255415808</v>
       </c>
       <c r="S9">
-        <v>0.05961053211615126</v>
+        <v>0.05684025509692065</v>
       </c>
       <c r="T9">
-        <v>0.05961053211615126</v>
+        <v>0.05684025509692067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H10">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I10">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J10">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N10">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q10">
-        <v>146.6188975706742</v>
+        <v>147.7414149387822</v>
       </c>
       <c r="R10">
-        <v>146.6188975706742</v>
+        <v>1329.67273444904</v>
       </c>
       <c r="S10">
-        <v>0.06932051392066205</v>
+        <v>0.06595209161895299</v>
       </c>
       <c r="T10">
-        <v>0.06932051392066205</v>
+        <v>0.06595209161895299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.316050666666666</v>
+      </c>
+      <c r="H11">
+        <v>18.948152</v>
+      </c>
+      <c r="I11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="J11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N11">
+        <v>48.172936</v>
+      </c>
+      <c r="O11">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P11">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q11">
+        <v>101.4209015126969</v>
+      </c>
+      <c r="R11">
+        <v>912.788113614272</v>
+      </c>
+      <c r="S11">
+        <v>0.04527451284674509</v>
+      </c>
+      <c r="T11">
+        <v>0.04527451284674509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.567216</v>
+      </c>
+      <c r="I12">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J12">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.547044</v>
+      </c>
+      <c r="N12">
+        <v>133.641132</v>
+      </c>
+      <c r="O12">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="P12">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="Q12">
+        <v>23.27161336983467</v>
+      </c>
+      <c r="R12">
+        <v>209.444520328512</v>
+      </c>
+      <c r="S12">
+        <v>0.01038849924189604</v>
+      </c>
+      <c r="T12">
+        <v>0.01038849924189604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.567216</v>
+      </c>
+      <c r="I13">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J13">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N13">
+        <v>120.711086</v>
+      </c>
+      <c r="O13">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="P13">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="Q13">
+        <v>21.02003837295289</v>
+      </c>
+      <c r="R13">
+        <v>189.180345356576</v>
+      </c>
+      <c r="S13">
+        <v>0.009383391225685277</v>
+      </c>
+      <c r="T13">
+        <v>0.009383391225685277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.567216</v>
+      </c>
+      <c r="I14">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J14">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.15970133333333</v>
+      </c>
+      <c r="N14">
+        <v>60.47910400000001</v>
+      </c>
+      <c r="O14">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="P14">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="Q14">
+        <v>10.53153549494045</v>
+      </c>
+      <c r="R14">
+        <v>94.78381945446402</v>
+      </c>
+      <c r="S14">
+        <v>0.004701300540125265</v>
+      </c>
+      <c r="T14">
+        <v>0.004701300540125265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.27793669662786</v>
-      </c>
-      <c r="H11">
-        <v>6.27793669662786</v>
-      </c>
-      <c r="I11">
-        <v>0.4217393908804876</v>
-      </c>
-      <c r="J11">
-        <v>0.4217393908804876</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="N11">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="O11">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="P11">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="Q11">
-        <v>90.44313531599266</v>
-      </c>
-      <c r="R11">
-        <v>90.44313531599266</v>
-      </c>
-      <c r="S11">
-        <v>0.04276095867982158</v>
-      </c>
-      <c r="T11">
-        <v>0.04276095867982158</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.567216</v>
+      </c>
+      <c r="I15">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J15">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>23.39142333333333</v>
+      </c>
+      <c r="N15">
+        <v>70.17426999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="P15">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="Q15">
+        <v>12.21980430359111</v>
+      </c>
+      <c r="R15">
+        <v>109.97823873232</v>
+      </c>
+      <c r="S15">
+        <v>0.005454947438604517</v>
+      </c>
+      <c r="T15">
+        <v>0.005454947438604516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.567216</v>
+      </c>
+      <c r="I16">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J16">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N16">
+        <v>48.172936</v>
+      </c>
+      <c r="O16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q16">
+        <v>8.388599562908444</v>
+      </c>
+      <c r="R16">
+        <v>75.49739606617601</v>
+      </c>
+      <c r="S16">
+        <v>0.003744689240704026</v>
+      </c>
+      <c r="T16">
+        <v>0.003744689240704026</v>
       </c>
     </row>
   </sheetData>
